--- a/研发部/产品/BOM/BP-K9107W5AA0 BOM/BOM表 参考2015.08.31.xlsx
+++ b/研发部/产品/BOM/BP-K9107W5AA0 BOM/BOM表 参考2015.08.31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8310" tabRatio="767"/>
+    <workbookView windowWidth="19770" windowHeight="7890" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="BP-K9107W5AA0" sheetId="1" r:id="rId1"/>
@@ -628,6 +628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>贴片一般一个元件算一个点（比如</t>
     </r>
     <r>
@@ -703,12 +710,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="180" formatCode="0.000_ ;[Red]\-0.000\ "/>
@@ -853,22 +860,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -882,19 +875,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -914,7 +915,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -927,30 +949,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -995,37 +1002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,36 +1021,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1039,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,15 +1195,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="63"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="63"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1216,36 +1253,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,16 +1286,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="63"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="63"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1310,16 +1317,16 @@
     </border>
   </borders>
   <cellStyleXfs count="67">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,198 +1335,198 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="111">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49">
@@ -1546,15 +1553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1573,7 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1624,26 +1625,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1654,23 +1640,20 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1678,24 +1661,6 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1705,7 +1670,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1714,26 +1679,17 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1807,20 +1763,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1828,28 +1781,16 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1864,7 +1805,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,19 +1814,13 @@
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3224,2096 +3159,2100 @@
   <sheetPr/>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="12" customWidth="1"/>
     <col min="2" max="2" width="5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="17" customWidth="1"/>
-    <col min="10" max="11" width="6.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="13" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="15" customWidth="1"/>
+    <col min="10" max="11" width="6.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="17" customWidth="1"/>
     <col min="13" max="13" width="38.375" style="10" customWidth="1"/>
-    <col min="14" max="15" width="9.375" style="20"/>
-    <col min="16" max="16384" width="9" style="14"/>
+    <col min="14" max="15" width="9.375" style="18"/>
+    <col min="16" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:13">
       <c r="A2" s="10"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A3" s="24"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="22"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" ht="40.5" spans="1:15">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="33" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="82">
         <v>1</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="100">
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="83">
+        <v>1.8</v>
+      </c>
+      <c r="O5" s="84">
+        <f>N5*J5</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="40.5" spans="1:15">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="O5" s="101">
-        <f>N5*J5</f>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="40.5" spans="1:15">
-      <c r="A6" s="31">
-        <v>2</v>
-      </c>
-      <c r="B6" s="31">
-        <v>1</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="99">
-        <v>1</v>
-      </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99">
+      <c r="K6" s="82"/>
+      <c r="L6" s="82">
         <f>SUM(L7:L46)</f>
         <v>131</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="O6" s="101">
+      <c r="M6" s="33"/>
+      <c r="N6" s="83">
+        <v>0.012</v>
+      </c>
+      <c r="O6" s="84">
         <f>L6*N6</f>
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:15">
-      <c r="A7" s="36">
+        <v>1.572</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="102">
+      <c r="H7" s="33"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="82">
         <v>5</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="82">
         <v>1</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="82">
         <f>K7*J7</f>
         <v>5</v>
       </c>
-      <c r="M7" s="103" t="s">
+      <c r="M7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="104">
+      <c r="N7" s="86">
         <v>0.0125</v>
       </c>
-      <c r="O7" s="101">
+      <c r="O7" s="84">
         <f t="shared" ref="O7:O18" si="0">N7*J7</f>
         <v>0.0625</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A8" s="37">
+    <row r="8" s="10" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="29">
         <v>3</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="102">
+      <c r="H8" s="33"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="82">
         <v>1</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="82">
         <v>1</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="82">
         <f t="shared" ref="L8:L46" si="1">K8*J8</f>
         <v>1</v>
       </c>
-      <c r="M8" s="103" t="s">
+      <c r="M8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="86">
         <v>0.0925</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="84">
         <f t="shared" si="0"/>
         <v>0.0925</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:15">
-      <c r="A9" s="37">
+    <row r="9" s="10" customFormat="1" spans="1:15">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="29">
         <v>4</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="102">
+      <c r="H9" s="33"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="82">
         <v>1</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="82">
         <v>1</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="104">
+      <c r="N9" s="86">
         <v>0.0125</v>
       </c>
-      <c r="O9" s="101">
+      <c r="O9" s="84">
         <f t="shared" si="0"/>
         <v>0.0125</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:15">
-      <c r="A10" s="36">
+    <row r="10" s="10" customFormat="1" spans="1:15">
+      <c r="A10" s="34">
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="102">
+      <c r="H10" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="82">
         <v>5</v>
       </c>
-      <c r="K10" s="102">
+      <c r="K10" s="82">
         <v>1</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="82">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="105">
+      <c r="N10" s="86">
         <v>0.0175</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="84">
         <f t="shared" si="0"/>
         <v>0.0875</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:15">
-      <c r="A11" s="37">
+    <row r="11" s="10" customFormat="1" spans="1:15">
+      <c r="A11" s="29">
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="29">
         <v>6</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="102">
+      <c r="H11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="82">
         <v>1</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="82">
         <v>1</v>
       </c>
-      <c r="L11" s="102">
+      <c r="L11" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="104">
+      <c r="N11" s="86">
         <v>0.0125</v>
       </c>
-      <c r="O11" s="101">
+      <c r="O11" s="84">
         <f t="shared" si="0"/>
         <v>0.0125</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:15">
-      <c r="A12" s="36">
+    <row r="12" s="10" customFormat="1" spans="1:15">
+      <c r="A12" s="34">
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="29">
         <v>7</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="102">
+      <c r="H12" s="33"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="82">
         <v>5</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="82">
         <v>1</v>
       </c>
-      <c r="L12" s="102">
+      <c r="L12" s="82">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="104">
+      <c r="N12" s="86">
         <v>0.04</v>
       </c>
-      <c r="O12" s="101">
+      <c r="O12" s="84">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:15">
-      <c r="A13" s="37">
+    <row r="13" s="10" customFormat="1" spans="1:15">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="29">
         <v>8</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="102">
+      <c r="H13" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="82">
         <v>3</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="82">
         <v>1</v>
       </c>
-      <c r="L13" s="102">
+      <c r="L13" s="82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M13" s="103" t="s">
+      <c r="M13" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="86">
         <v>0.115</v>
       </c>
-      <c r="O13" s="101">
+      <c r="O13" s="84">
         <f t="shared" si="0"/>
         <v>0.345</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:15">
-      <c r="A14" s="36">
+    <row r="14" s="10" customFormat="1" spans="1:15">
+      <c r="A14" s="34">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="29">
         <v>9</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="42" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="102">
+      <c r="H14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="82">
         <v>1</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="82">
         <v>1</v>
       </c>
-      <c r="L14" s="102">
+      <c r="L14" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M14" s="103" t="s">
+      <c r="M14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="104">
+      <c r="N14" s="86">
         <v>0.0125</v>
       </c>
-      <c r="O14" s="101">
+      <c r="O14" s="84">
         <f t="shared" si="0"/>
         <v>0.0125</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:15">
-      <c r="A15" s="44">
+    <row r="15" s="11" customFormat="1" spans="1:15">
+      <c r="A15" s="37">
         <v>12</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="37">
         <v>10</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="106">
+      <c r="H15" s="42"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="87">
         <v>3</v>
       </c>
-      <c r="K15" s="106">
+      <c r="K15" s="87">
         <v>1</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="108"/>
-      <c r="O15" s="101">
+      <c r="N15" s="89">
+        <v>0.0675</v>
+      </c>
+      <c r="O15" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:15">
-      <c r="A16" s="36">
+        <v>0.2025</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:15">
+      <c r="A16" s="34">
         <v>13</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="29">
         <v>11</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="102">
+      <c r="H16" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="82">
         <v>3</v>
       </c>
-      <c r="K16" s="102">
+      <c r="K16" s="82">
         <v>1</v>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M16" s="103" t="s">
+      <c r="M16" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="104">
+      <c r="N16" s="86">
         <v>0.022</v>
       </c>
-      <c r="O16" s="101">
+      <c r="O16" s="84">
         <f t="shared" si="0"/>
         <v>0.066</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:15">
-      <c r="A17" s="44">
+    <row r="17" s="11" customFormat="1" spans="1:15">
+      <c r="A17" s="37">
         <v>14</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="37">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="106">
+      <c r="H17" s="42"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="87">
         <v>1</v>
       </c>
-      <c r="K17" s="106">
+      <c r="K17" s="87">
         <v>1</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M17" s="107" t="s">
+      <c r="M17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="108"/>
-      <c r="O17" s="101">
+      <c r="N17" s="89">
+        <v>0.03875</v>
+      </c>
+      <c r="O17" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="11" customFormat="1" spans="1:15">
-      <c r="A18" s="36">
+        <v>0.03875</v>
+      </c>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:15">
+      <c r="A18" s="34">
         <v>15</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="29">
         <v>13</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="102">
+      <c r="H18" s="33"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="82">
         <v>1</v>
       </c>
-      <c r="K18" s="102">
+      <c r="K18" s="82">
         <v>1</v>
       </c>
-      <c r="L18" s="102">
+      <c r="L18" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M18" s="103" t="s">
+      <c r="M18" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="104">
+      <c r="N18" s="86">
         <v>0.022</v>
       </c>
-      <c r="O18" s="101">
+      <c r="O18" s="84">
         <f t="shared" si="0"/>
         <v>0.022</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:15">
-      <c r="A19" s="36">
+    <row r="19" s="10" customFormat="1" spans="1:15">
+      <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="29">
         <v>15</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="102">
+      <c r="H19" s="46"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="82">
         <v>1</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="82">
         <v>1</v>
       </c>
-      <c r="L19" s="102">
+      <c r="L19" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M19" s="103" t="s">
+      <c r="M19" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="109">
+      <c r="N19" s="90">
         <v>0.015</v>
       </c>
-      <c r="O19" s="101">
+      <c r="O19" s="84">
         <f t="shared" ref="O19:O46" si="2">N19*J19</f>
         <v>0.015</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="1" spans="1:15">
-      <c r="A20" s="52">
+    <row r="20" s="10" customFormat="1" spans="1:15">
+      <c r="A20" s="29">
         <v>18</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="29">
         <v>16</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="43" t="s">
+      <c r="H20" s="46"/>
+      <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="110">
+      <c r="J20" s="82">
         <v>1</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="82">
         <v>4</v>
       </c>
-      <c r="L20" s="102">
+      <c r="L20" s="82">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M20" s="111" t="s">
+      <c r="M20" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="N20" s="112">
-        <v>0.25</v>
-      </c>
-      <c r="O20" s="101">
+      <c r="N20" s="83">
+        <v>0.15</v>
+      </c>
+      <c r="O20" s="84">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" s="11" customFormat="1" ht="15" customHeight="1" spans="1:15">
-      <c r="A21" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="29">
         <v>17</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="102">
+      <c r="H21" s="46"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="82">
         <v>6</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="82">
         <v>3</v>
       </c>
-      <c r="L21" s="102">
+      <c r="L21" s="82">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M21" s="103" t="s">
+      <c r="M21" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="109">
+      <c r="N21" s="90">
         <v>0.13</v>
       </c>
-      <c r="O21" s="101">
+      <c r="O21" s="84">
         <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
     </row>
-    <row r="22" s="13" customFormat="1" spans="1:15">
-      <c r="A22" s="52">
+    <row r="22" s="10" customFormat="1" spans="1:15">
+      <c r="A22" s="29">
         <v>20</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="29">
         <v>18</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="59" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="110">
+      <c r="J22" s="82">
         <v>1</v>
       </c>
-      <c r="K22" s="110"/>
-      <c r="L22" s="102">
+      <c r="K22" s="82"/>
+      <c r="L22" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="111" t="s">
+      <c r="M22" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="112"/>
-      <c r="O22" s="101">
+      <c r="N22" s="83"/>
+      <c r="O22" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="13" customFormat="1" spans="1:15">
-      <c r="A23" s="58">
+    <row r="23" s="10" customFormat="1" spans="1:15">
+      <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="29">
         <v>19</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="47">
         <v>4953</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="110">
+      <c r="H23" s="46"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="82">
         <v>2</v>
       </c>
-      <c r="K23" s="110">
+      <c r="K23" s="82">
         <v>2</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="82">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M23" s="111" t="s">
+      <c r="M23" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="113">
+      <c r="N23" s="91">
         <v>0.22</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="84">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="24" s="13" customFormat="1" spans="1:15">
-      <c r="A24" s="52">
+    <row r="24" s="10" customFormat="1" spans="1:15">
+      <c r="A24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="29">
         <v>20</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="110">
+      <c r="H24" s="46"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="82">
         <v>1</v>
       </c>
-      <c r="K24" s="110">
+      <c r="K24" s="82">
         <v>1.5</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="82">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="M24" s="111" t="s">
+      <c r="M24" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="114">
+      <c r="N24" s="92">
         <v>0.038</v>
       </c>
-      <c r="O24" s="101">
+      <c r="O24" s="84">
         <f t="shared" si="2"/>
         <v>0.038</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" spans="1:15">
-      <c r="A25" s="52">
+    <row r="25" s="10" customFormat="1" spans="1:15">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="29">
         <v>22</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="51">
         <v>9926</v>
       </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="115">
+      <c r="H25" s="52"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="93">
         <v>1</v>
       </c>
-      <c r="K25" s="115">
+      <c r="K25" s="93">
         <v>2</v>
       </c>
-      <c r="L25" s="102">
+      <c r="L25" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M25" s="116" t="s">
+      <c r="M25" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="N25" s="114">
+      <c r="N25" s="92">
         <v>0.3</v>
       </c>
-      <c r="O25" s="101">
+      <c r="O25" s="84">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" spans="1:15">
-      <c r="A26" s="58">
+    <row r="26" s="10" customFormat="1" spans="1:15">
+      <c r="A26" s="34">
         <v>23</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="29">
         <v>21</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="47">
         <v>2227</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="110">
+      <c r="H26" s="46"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="82">
         <v>4</v>
       </c>
-      <c r="K26" s="110">
+      <c r="K26" s="82">
         <v>1.5</v>
       </c>
-      <c r="L26" s="102">
+      <c r="L26" s="82">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M26" s="111" t="s">
+      <c r="M26" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="114">
+      <c r="N26" s="92">
         <v>0.11</v>
       </c>
-      <c r="O26" s="101">
+      <c r="O26" s="84">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="1" spans="1:15">
-      <c r="A27" s="52">
+    <row r="27" s="10" customFormat="1" spans="1:15">
+      <c r="A27" s="29">
         <v>16</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="29">
         <v>14</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="110">
+      <c r="H27" s="33"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="82">
         <v>2</v>
       </c>
-      <c r="K27" s="110">
+      <c r="K27" s="82">
         <v>1.5</v>
       </c>
-      <c r="L27" s="102">
+      <c r="L27" s="82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M27" s="111" t="s">
+      <c r="M27" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="N27" s="114">
+      <c r="N27" s="92">
         <v>0.02</v>
       </c>
-      <c r="O27" s="101">
+      <c r="O27" s="84">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" s="13" customFormat="1" spans="1:15">
-      <c r="A28" s="58">
+    <row r="28" s="10" customFormat="1" spans="1:15">
+      <c r="A28" s="34">
         <v>25</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="29">
         <v>23</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="47">
         <v>8550</v>
       </c>
-      <c r="H28" s="57"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="110">
+      <c r="H28" s="46"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="82">
         <v>3</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="82">
         <v>1.5</v>
       </c>
-      <c r="L28" s="102">
+      <c r="L28" s="82">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="M28" s="111" t="s">
+      <c r="M28" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="114">
+      <c r="N28" s="92">
         <v>0.026</v>
       </c>
-      <c r="O28" s="101">
+      <c r="O28" s="84">
         <f t="shared" si="2"/>
         <v>0.078</v>
       </c>
     </row>
-    <row r="29" s="11" customFormat="1" spans="1:15">
-      <c r="A29" s="37">
+    <row r="29" s="10" customFormat="1" spans="1:15">
+      <c r="A29" s="29">
         <v>26</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="29">
         <v>24</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="102">
+      <c r="H29" s="46"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="82">
         <v>1</v>
       </c>
-      <c r="K29" s="102">
+      <c r="K29" s="82">
         <v>1</v>
       </c>
-      <c r="L29" s="102">
+      <c r="L29" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M29" s="103" t="s">
+      <c r="M29" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="N29" s="117">
+      <c r="N29" s="95">
         <v>0.5</v>
       </c>
-      <c r="O29" s="101">
+      <c r="O29" s="84">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" ht="27" spans="1:15">
-      <c r="A30" s="36">
+    <row r="30" s="10" customFormat="1" ht="27" spans="1:15">
+      <c r="A30" s="34">
         <v>27</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="29">
         <v>25</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="102">
+      <c r="H30" s="46"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="82">
         <v>14</v>
       </c>
-      <c r="K30" s="102">
+      <c r="K30" s="82">
         <v>1</v>
       </c>
-      <c r="L30" s="102">
+      <c r="L30" s="82">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="M30" s="103" t="s">
+      <c r="M30" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="117">
+      <c r="N30" s="95">
         <v>0.02</v>
       </c>
-      <c r="O30" s="101">
+      <c r="O30" s="84">
         <f t="shared" si="2"/>
         <v>0.28</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="1" spans="1:15">
-      <c r="A31" s="37">
+    <row r="31" s="10" customFormat="1" spans="1:15">
+      <c r="A31" s="29">
         <v>28</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="29">
         <v>26</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="102">
+      <c r="H31" s="33"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="82">
         <v>3</v>
       </c>
-      <c r="K31" s="102">
+      <c r="K31" s="82">
         <v>1</v>
       </c>
-      <c r="L31" s="102">
+      <c r="L31" s="82">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M31" s="103" t="s">
+      <c r="M31" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="N31" s="117">
+      <c r="N31" s="95">
         <v>0.02</v>
       </c>
-      <c r="O31" s="101">
+      <c r="O31" s="84">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:15">
-      <c r="A32" s="36">
+    <row r="32" s="10" customFormat="1" spans="1:15">
+      <c r="A32" s="34">
         <v>29</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="29">
         <v>27</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="102">
+      <c r="H32" s="33"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="82">
         <v>2</v>
       </c>
-      <c r="K32" s="102">
+      <c r="K32" s="82">
         <v>1</v>
       </c>
-      <c r="L32" s="102">
+      <c r="L32" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" s="103" t="s">
+      <c r="M32" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="N32" s="117">
+      <c r="N32" s="95">
         <v>0.02</v>
       </c>
-      <c r="O32" s="101">
+      <c r="O32" s="84">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" s="11" customFormat="1" spans="1:15">
-      <c r="A33" s="37">
+    <row r="33" s="10" customFormat="1" spans="1:15">
+      <c r="A33" s="29">
         <v>30</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="29">
         <v>28</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="102">
+      <c r="H33" s="33"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="82">
         <v>7</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K33" s="82">
         <v>1</v>
       </c>
-      <c r="L33" s="102">
+      <c r="L33" s="82">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M33" s="103" t="s">
+      <c r="M33" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="N33" s="117">
+      <c r="N33" s="95">
         <v>0.02</v>
       </c>
-      <c r="O33" s="101">
+      <c r="O33" s="84">
         <f t="shared" si="2"/>
         <v>0.14</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:15">
-      <c r="A34" s="36">
+    <row r="34" s="10" customFormat="1" spans="1:15">
+      <c r="A34" s="34">
         <v>31</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="29">
         <v>29</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="102">
+      <c r="H34" s="33"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="82">
         <v>2</v>
       </c>
-      <c r="K34" s="102">
+      <c r="K34" s="82">
         <v>1</v>
       </c>
-      <c r="L34" s="102">
+      <c r="L34" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M34" s="103" t="s">
+      <c r="M34" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="117">
+      <c r="N34" s="95">
         <v>0.02</v>
       </c>
-      <c r="O34" s="101">
+      <c r="O34" s="84">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" s="11" customFormat="1" spans="1:15">
-      <c r="A35" s="37">
+    <row r="35" s="10" customFormat="1" spans="1:15">
+      <c r="A35" s="29">
         <v>32</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="29">
         <v>30</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="102">
+      <c r="H35" s="33"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="82">
         <v>1</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="82">
         <v>1</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="117">
+      <c r="N35" s="95">
         <v>0.02</v>
       </c>
-      <c r="O35" s="101">
+      <c r="O35" s="84">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" s="11" customFormat="1" spans="1:15">
-      <c r="A36" s="36">
+    <row r="36" s="10" customFormat="1" spans="1:15">
+      <c r="A36" s="34">
         <v>33</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="29">
         <v>31</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="102">
+      <c r="H36" s="33"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="82">
         <v>5</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="82">
         <v>1</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="82">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M36" s="103" t="s">
+      <c r="M36" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="N36" s="117">
+      <c r="N36" s="95">
         <v>0.02</v>
       </c>
-      <c r="O36" s="101">
+      <c r="O36" s="84">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:15">
-      <c r="A37" s="37">
+    <row r="37" s="10" customFormat="1" spans="1:15">
+      <c r="A37" s="29">
         <v>34</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="29">
         <v>32</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="102">
+      <c r="H37" s="33"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="82">
         <v>2</v>
       </c>
-      <c r="K37" s="102">
+      <c r="K37" s="82">
         <v>1</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="117">
+      <c r="N37" s="95">
         <v>0.02</v>
       </c>
-      <c r="O37" s="101">
+      <c r="O37" s="84">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="1" spans="1:15">
-      <c r="A38" s="36">
+    <row r="38" s="10" customFormat="1" spans="1:15">
+      <c r="A38" s="34">
         <v>35</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="29">
         <v>33</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="102">
+      <c r="H38" s="33"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="82">
         <v>6</v>
       </c>
-      <c r="K38" s="102">
+      <c r="K38" s="82">
         <v>1</v>
       </c>
-      <c r="L38" s="102">
+      <c r="L38" s="82">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M38" s="103" t="s">
+      <c r="M38" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="N38" s="117">
+      <c r="N38" s="95">
         <v>0.02</v>
       </c>
-      <c r="O38" s="101">
+      <c r="O38" s="84">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:15">
-      <c r="A39" s="37">
+    <row r="39" s="10" customFormat="1" spans="1:15">
+      <c r="A39" s="29">
         <v>36</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="29">
         <v>34</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="102">
+      <c r="H39" s="33"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="82">
         <v>1</v>
       </c>
-      <c r="K39" s="102">
+      <c r="K39" s="82">
         <v>1</v>
       </c>
-      <c r="L39" s="102">
+      <c r="L39" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M39" s="103" t="s">
+      <c r="M39" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="117">
+      <c r="N39" s="95">
         <v>0.02</v>
       </c>
-      <c r="O39" s="101">
+      <c r="O39" s="84">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" s="11" customFormat="1" spans="1:15">
-      <c r="A40" s="36">
+    <row r="40" s="10" customFormat="1" spans="1:15">
+      <c r="A40" s="34">
         <v>37</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="29">
         <v>35</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="39" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="43" t="s">
+      <c r="H40" s="33"/>
+      <c r="I40" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="102">
+      <c r="J40" s="82">
         <v>1</v>
       </c>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102">
+      <c r="K40" s="82"/>
+      <c r="L40" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="103" t="s">
+      <c r="M40" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="118">
+      <c r="N40" s="96">
         <v>0.5</v>
       </c>
-      <c r="O40" s="101">
+      <c r="O40" s="84">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:15">
-      <c r="A41" s="36"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="70" t="s">
+    <row r="41" s="10" customFormat="1" spans="1:15">
+      <c r="A41" s="34"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="43" t="s">
+      <c r="H41" s="33"/>
+      <c r="I41" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J41" s="82">
         <v>1</v>
       </c>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102">
+      <c r="K41" s="82"/>
+      <c r="L41" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="103" t="s">
+      <c r="M41" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="N41" s="119">
+      <c r="N41" s="97">
         <v>1.5</v>
       </c>
-      <c r="O41" s="101">
+      <c r="O41" s="84">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" s="13" customFormat="1" spans="1:15">
-      <c r="A42" s="52">
+    <row r="42" s="10" customFormat="1" spans="1:15">
+      <c r="A42" s="29">
         <v>40</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="29">
         <v>38</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="110">
+      <c r="I42" s="31"/>
+      <c r="J42" s="82">
         <v>1</v>
       </c>
-      <c r="K42" s="110">
+      <c r="K42" s="82">
         <v>5</v>
       </c>
-      <c r="L42" s="102">
+      <c r="L42" s="82">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M42" s="111" t="s">
+      <c r="M42" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="N42" s="120">
+      <c r="N42" s="98">
         <v>3.5</v>
       </c>
-      <c r="O42" s="101">
+      <c r="O42" s="84">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="43" s="10" customFormat="1" spans="1:15">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <v>38</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="29">
         <v>36</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33" t="s">
+      <c r="E43" s="31"/>
+      <c r="F43" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="99">
+      <c r="H43" s="33"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="82">
         <v>1</v>
       </c>
-      <c r="K43" s="99">
+      <c r="K43" s="82">
         <v>2</v>
       </c>
-      <c r="L43" s="102">
+      <c r="L43" s="82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M43" s="121" t="s">
+      <c r="M43" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="N43" s="122">
+      <c r="N43" s="99">
         <v>0.063</v>
       </c>
-      <c r="O43" s="101">
+      <c r="O43" s="84">
         <f t="shared" si="2"/>
         <v>0.063</v>
       </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:15">
-      <c r="A44" s="73">
+      <c r="A44" s="34">
         <v>39</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="29">
         <v>37</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33" t="s">
+      <c r="E44" s="31"/>
+      <c r="F44" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="99">
+      <c r="H44" s="33"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="82">
         <v>1</v>
       </c>
-      <c r="K44" s="99">
+      <c r="K44" s="82">
         <v>1.5</v>
       </c>
-      <c r="L44" s="102">
+      <c r="L44" s="82">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="M44" s="121" t="s">
+      <c r="M44" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="N44" s="123">
+      <c r="N44" s="100">
         <v>0.05</v>
       </c>
-      <c r="O44" s="101">
+      <c r="O44" s="84">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="45" s="10" customFormat="1" spans="1:15">
-      <c r="A45" s="73">
+      <c r="A45" s="34">
         <v>41</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="29">
         <v>39</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="57">
         <v>7150</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="99">
+      <c r="H45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="82">
         <v>1</v>
       </c>
-      <c r="K45" s="99">
+      <c r="K45" s="82">
         <v>1</v>
       </c>
-      <c r="L45" s="102">
+      <c r="L45" s="82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M45" s="121" t="s">
+      <c r="M45" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="123">
+      <c r="N45" s="100">
         <v>0.17</v>
       </c>
-      <c r="O45" s="101">
+      <c r="O45" s="84">
         <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
     </row>
     <row r="46" s="10" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A46" s="31">
+      <c r="A46" s="29">
         <v>42</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="29">
         <v>40</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33" t="s">
+      <c r="E46" s="31"/>
+      <c r="F46" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="99">
+      <c r="H46" s="33"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="82">
         <v>1</v>
       </c>
-      <c r="K46" s="99">
+      <c r="K46" s="82">
         <v>3.5</v>
       </c>
-      <c r="L46" s="102">
+      <c r="L46" s="82">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="M46" s="121" t="s">
+      <c r="M46" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="124">
+      <c r="N46" s="98">
         <v>0.18</v>
       </c>
-      <c r="O46" s="101">
+      <c r="O46" s="84">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="20" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="18">
         <f>SUM(O5:O46)</f>
-        <v>12.927</v>
+        <v>14.13025</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80" t="s">
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="127"/>
-      <c r="J49" s="80" t="s">
+      <c r="I49" s="103"/>
+      <c r="J49" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="128" t="s">
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="104" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="82">
+      <c r="A50" s="65">
         <v>1</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="130"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="106"/>
     </row>
     <row r="51" customHeight="1" spans="1:13">
-      <c r="A51" s="82">
+      <c r="A51" s="65">
         <v>2</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="130"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="106"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="82">
+      <c r="A52" s="65">
         <v>3</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="130"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="106"/>
     </row>
     <row r="54" spans="5:13">
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="131" t="s">
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="132"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="108"/>
     </row>
     <row r="55" spans="3:13">
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="85" t="s">
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="86" t="s">
+      <c r="F55" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="G55" s="89" t="s">
+      <c r="G55" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="H55" s="87"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="133" t="s">
+      <c r="H55" s="70"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="91"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="74"/>
     </row>
     <row r="56" spans="3:13">
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="85" t="s">
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="F56" s="90">
+      <c r="F56" s="73">
         <v>43163</v>
       </c>
-      <c r="G56" s="89" t="s">
+      <c r="G56" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="H56" s="87"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="133" t="s">
+      <c r="H56" s="70"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="91"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="74"/>
     </row>
     <row r="57" spans="3:13">
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="91"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:M46"/>

--- a/研发部/产品/BOM/BP-K9107W5AA0 BOM/BOM表 参考2015.08.31.xlsx
+++ b/研发部/产品/BOM/BP-K9107W5AA0 BOM/BOM表 参考2015.08.31.xlsx
@@ -13,7 +13,7 @@
     <sheet name="贴片工艺" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BP-K9107W5AA0'!$A$4:$M$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BP-K9107W5AA0'!$A$4:$M$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">IR焊接工艺!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">LED焊接工艺!$A$1:$I$39</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>深圳市蓝电智创科技有限公司BOM表</t>
   </si>
@@ -264,24 +264,6 @@
     <t>LED10, LED11, LED12, LED13, LED14, LED15</t>
   </si>
   <si>
-    <t>200K</t>
-  </si>
-  <si>
-    <t>DZ11V001400</t>
-  </si>
-  <si>
-    <t>单排针</t>
-  </si>
-  <si>
-    <t>40P-2.54mm L=11mm 立式180°</t>
-  </si>
-  <si>
-    <t>不焊</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
     <t>47K</t>
   </si>
   <si>
@@ -454,27 +436,6 @@
   </si>
   <si>
     <t>R50</t>
-  </si>
-  <si>
-    <t>220PF</t>
-  </si>
-  <si>
-    <t>DIP电阻</t>
-  </si>
-  <si>
-    <t>3435B-10K±5% NTC热敏电阻</t>
-  </si>
-  <si>
-    <t>RTC1</t>
-  </si>
-  <si>
-    <t>DIP电感</t>
-  </si>
-  <si>
-    <t>A5规格 L40mm  10圈</t>
-  </si>
-  <si>
-    <t>L1</t>
   </si>
   <si>
     <t>82pF</t>
@@ -710,15 +671,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="178" formatCode="[$￥-804]#,##0;[Red][$￥-804]\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -854,21 +815,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,12 +835,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -901,9 +863,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -911,13 +879,6 @@
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -936,22 +897,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1002,13 +963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,49 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1017,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,18 +1059,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1167,21 +1128,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF00B0F0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B0F0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00B0F0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1190,6 +1136,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,45 +1170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1259,11 +1181,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,8 +1191,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,6 +1221,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1315,218 +1250,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="67">
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="108">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49">
@@ -1625,10 +1571,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,19 +1586,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1616,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,10 +1631,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,7 +1655,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="6" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1778,7 +1721,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,10 +1736,10 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,19 +1751,13 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,10 +3094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3196,7 +3133,7 @@
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
-      <c r="M1" s="75"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:13">
       <c r="A2" s="10"/>
@@ -3209,10 +3146,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="14"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" ht="35.25" customHeight="1" spans="1:13">
       <c r="A3" s="22"/>
@@ -3224,13 +3161,13 @@
       <c r="H3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3274,7 +3211,7 @@
       <c r="M4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="25" t="s">
@@ -3303,19 +3240,14 @@
       <c r="I5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="82">
+      <c r="J5" s="81">
         <v>1</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="83">
-        <v>1.8</v>
-      </c>
-      <c r="O5" s="84">
-        <f>N5*J5</f>
-        <v>1.8</v>
-      </c>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" s="10" customFormat="1" ht="40.5" spans="1:15">
       <c r="A6" s="29">
@@ -3339,22 +3271,17 @@
       <c r="I6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="81">
         <v>1</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82">
-        <f>SUM(L7:L46)</f>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81">
+        <f>SUM(L7:L43)</f>
         <v>131</v>
       </c>
       <c r="M6" s="33"/>
-      <c r="N6" s="83">
-        <v>0.012</v>
-      </c>
-      <c r="O6" s="84">
-        <f>L6*N6</f>
-        <v>1.572</v>
-      </c>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:15">
       <c r="A7" s="34">
@@ -3376,26 +3303,21 @@
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="82">
+      <c r="J7" s="81">
         <v>5</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <v>1</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <f>K7*J7</f>
         <v>5</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="86">
-        <v>0.0125</v>
-      </c>
-      <c r="O7" s="84">
-        <f t="shared" ref="O7:O18" si="0">N7*J7</f>
-        <v>0.0625</v>
-      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="83"/>
     </row>
     <row r="8" s="10" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A8" s="29">
@@ -3421,26 +3343,21 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="31"/>
-      <c r="J8" s="82">
+      <c r="J8" s="81">
         <v>1</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="81">
         <v>1</v>
       </c>
-      <c r="L8" s="82">
-        <f t="shared" ref="L8:L46" si="1">K8*J8</f>
+      <c r="L8" s="81">
+        <f>K8*J8</f>
         <v>1</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="86">
-        <v>0.0925</v>
-      </c>
-      <c r="O8" s="84">
-        <f t="shared" si="0"/>
-        <v>0.0925</v>
-      </c>
+      <c r="N8" s="85"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:15">
       <c r="A9" s="29">
@@ -3464,26 +3381,21 @@
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="82">
+      <c r="J9" s="81">
         <v>1</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="81">
         <v>1</v>
       </c>
-      <c r="L9" s="82">
-        <f t="shared" si="1"/>
+      <c r="L9" s="81">
+        <f>K9*J9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="86">
-        <v>0.0125</v>
-      </c>
-      <c r="O9" s="84">
-        <f t="shared" si="0"/>
-        <v>0.0125</v>
-      </c>
+      <c r="N9" s="85"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:15">
       <c r="A10" s="34">
@@ -3505,26 +3417,21 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="82">
+      <c r="J10" s="81">
         <v>5</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="81">
         <v>1</v>
       </c>
-      <c r="L10" s="82">
-        <f t="shared" si="1"/>
+      <c r="L10" s="81">
+        <f>K10*J10</f>
         <v>5</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="86">
-        <v>0.0175</v>
-      </c>
-      <c r="O10" s="84">
-        <f t="shared" si="0"/>
-        <v>0.0875</v>
-      </c>
+      <c r="N10" s="85"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:15">
       <c r="A11" s="29">
@@ -3550,26 +3457,21 @@
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="82">
+      <c r="J11" s="81">
         <v>1</v>
       </c>
-      <c r="K11" s="82">
+      <c r="K11" s="81">
         <v>1</v>
       </c>
-      <c r="L11" s="82">
-        <f t="shared" si="1"/>
+      <c r="L11" s="81">
+        <f>K11*J11</f>
         <v>1</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="86">
-        <v>0.0125</v>
-      </c>
-      <c r="O11" s="84">
-        <f t="shared" si="0"/>
-        <v>0.0125</v>
-      </c>
+      <c r="N11" s="85"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:15">
       <c r="A12" s="34">
@@ -3591,26 +3493,21 @@
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="82">
+      <c r="J12" s="81">
         <v>5</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="81">
         <v>1</v>
       </c>
-      <c r="L12" s="82">
-        <f t="shared" si="1"/>
+      <c r="L12" s="81">
+        <f>K12*J12</f>
         <v>5</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="86">
-        <v>0.04</v>
-      </c>
-      <c r="O12" s="84">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="N12" s="85"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:15">
       <c r="A13" s="29">
@@ -3636,26 +3533,21 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="82">
+      <c r="J13" s="81">
         <v>3</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="81">
         <v>1</v>
       </c>
-      <c r="L13" s="82">
-        <f t="shared" si="1"/>
+      <c r="L13" s="81">
+        <f>K13*J13</f>
         <v>3</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="86">
-        <v>0.115</v>
-      </c>
-      <c r="O13" s="84">
-        <f t="shared" si="0"/>
-        <v>0.345</v>
-      </c>
+      <c r="N13" s="85"/>
+      <c r="O13" s="83"/>
     </row>
     <row r="14" s="10" customFormat="1" spans="1:15">
       <c r="A14" s="34">
@@ -3675,26 +3567,21 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="82">
+      <c r="J14" s="81">
         <v>1</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="81">
         <v>1</v>
       </c>
-      <c r="L14" s="82">
-        <f t="shared" si="1"/>
+      <c r="L14" s="81">
+        <f>K14*J14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="86">
-        <v>0.0125</v>
-      </c>
-      <c r="O14" s="84">
-        <f t="shared" si="0"/>
-        <v>0.0125</v>
-      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="83"/>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:15">
       <c r="A15" s="37">
@@ -3718,26 +3605,21 @@
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="87">
+      <c r="J15" s="86">
         <v>3</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="86">
         <v>1</v>
       </c>
-      <c r="L15" s="82">
-        <f t="shared" si="1"/>
+      <c r="L15" s="81">
+        <f>K15*J15</f>
         <v>3</v>
       </c>
-      <c r="M15" s="88" t="s">
+      <c r="M15" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="89">
-        <v>0.0675</v>
-      </c>
-      <c r="O15" s="84">
-        <f t="shared" si="0"/>
-        <v>0.2025</v>
-      </c>
+      <c r="N15" s="88"/>
+      <c r="O15" s="83"/>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:15">
       <c r="A16" s="34">
@@ -3763,26 +3645,21 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="82">
+      <c r="J16" s="81">
         <v>3</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="81">
         <v>1</v>
       </c>
-      <c r="L16" s="82">
-        <f t="shared" si="1"/>
+      <c r="L16" s="81">
+        <f>K16*J16</f>
         <v>3</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M16" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="86">
-        <v>0.022</v>
-      </c>
-      <c r="O16" s="84">
-        <f t="shared" si="0"/>
-        <v>0.066</v>
-      </c>
+      <c r="N16" s="85"/>
+      <c r="O16" s="83"/>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:15">
       <c r="A17" s="37">
@@ -3806,26 +3683,21 @@
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="87">
+      <c r="J17" s="86">
         <v>1</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="86">
         <v>1</v>
       </c>
-      <c r="L17" s="82">
-        <f t="shared" si="1"/>
+      <c r="L17" s="81">
+        <f>K17*J17</f>
         <v>1</v>
       </c>
-      <c r="M17" s="88" t="s">
+      <c r="M17" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="89">
-        <v>0.03875</v>
-      </c>
-      <c r="O17" s="84">
-        <f t="shared" si="0"/>
-        <v>0.03875</v>
-      </c>
+      <c r="N17" s="88"/>
+      <c r="O17" s="83"/>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:15">
       <c r="A18" s="34">
@@ -3849,26 +3721,21 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="82">
+      <c r="J18" s="81">
         <v>1</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="81">
         <v>1</v>
       </c>
-      <c r="L18" s="82">
-        <f t="shared" si="1"/>
+      <c r="L18" s="81">
+        <f>K18*J18</f>
         <v>1</v>
       </c>
-      <c r="M18" s="85" t="s">
+      <c r="M18" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="86">
-        <v>0.022</v>
-      </c>
-      <c r="O18" s="84">
-        <f t="shared" si="0"/>
-        <v>0.022</v>
-      </c>
+      <c r="N18" s="85"/>
+      <c r="O18" s="83"/>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:15">
       <c r="A19" s="34">
@@ -3894,26 +3761,21 @@
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="82">
+      <c r="J19" s="81">
         <v>1</v>
       </c>
-      <c r="K19" s="82">
+      <c r="K19" s="81">
         <v>1</v>
       </c>
-      <c r="L19" s="82">
-        <f t="shared" si="1"/>
+      <c r="L19" s="81">
+        <f>K19*J19</f>
         <v>1</v>
       </c>
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="90">
-        <v>0.015</v>
-      </c>
-      <c r="O19" s="84">
-        <f t="shared" ref="O19:O46" si="2">N19*J19</f>
-        <v>0.015</v>
-      </c>
+      <c r="N19" s="89"/>
+      <c r="O19" s="83"/>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:15">
       <c r="A20" s="29">
@@ -3941,26 +3803,21 @@
       <c r="I20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="81">
         <v>1</v>
       </c>
-      <c r="K20" s="82">
+      <c r="K20" s="81">
         <v>4</v>
       </c>
-      <c r="L20" s="82">
-        <f t="shared" si="1"/>
+      <c r="L20" s="81">
+        <f>K20*J20</f>
         <v>4</v>
       </c>
-      <c r="M20" s="85" t="s">
+      <c r="M20" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="N20" s="83">
-        <v>0.15</v>
-      </c>
-      <c r="O20" s="84">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
+      <c r="N20" s="82"/>
+      <c r="O20" s="83"/>
     </row>
     <row r="21" s="10" customFormat="1" ht="15" customHeight="1" spans="1:15">
       <c r="A21" s="34">
@@ -3984,33 +3841,28 @@
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="82">
+      <c r="J21" s="81">
         <v>6</v>
       </c>
-      <c r="K21" s="82">
+      <c r="K21" s="81">
         <v>3</v>
       </c>
-      <c r="L21" s="82">
-        <f t="shared" si="1"/>
+      <c r="L21" s="81">
+        <f>K21*J21</f>
         <v>18</v>
       </c>
-      <c r="M21" s="85" t="s">
+      <c r="M21" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="N21" s="90">
-        <v>0.13</v>
-      </c>
-      <c r="O21" s="84">
-        <f t="shared" si="2"/>
-        <v>0.78</v>
-      </c>
+      <c r="N21" s="89"/>
+      <c r="O21" s="83"/>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:15">
-      <c r="A22" s="29">
-        <v>20</v>
+      <c r="A22" s="34">
+        <v>21</v>
       </c>
       <c r="B22" s="29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>31</v>
@@ -4018,1255 +3870,1024 @@
       <c r="D22" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="G22" s="47">
+        <v>4953</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="81">
+        <v>2</v>
+      </c>
+      <c r="K22" s="81">
+        <v>2</v>
+      </c>
+      <c r="L22" s="81">
+        <f t="shared" ref="L22:L45" si="0">K22*J22</f>
+        <v>4</v>
+      </c>
+      <c r="M22" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="82">
-        <v>1</v>
-      </c>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="N22" s="90"/>
+      <c r="O22" s="83"/>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:15">
-      <c r="A23" s="34">
-        <v>21</v>
+      <c r="A23" s="29">
+        <v>22</v>
       </c>
       <c r="B23" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="47">
-        <v>4953</v>
+        <v>81</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="82">
-        <v>2</v>
-      </c>
-      <c r="K23" s="82">
-        <v>2</v>
-      </c>
-      <c r="L23" s="82">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M23" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="N23" s="91">
-        <v>0.22</v>
-      </c>
-      <c r="O23" s="84">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
-      </c>
+      <c r="J23" s="81">
+        <v>1</v>
+      </c>
+      <c r="K23" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="81">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="91"/>
+      <c r="O23" s="83"/>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:15">
       <c r="A24" s="29">
+        <v>24</v>
+      </c>
+      <c r="B24" s="29">
         <v>22</v>
       </c>
-      <c r="B24" s="29">
-        <v>20</v>
-      </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="51">
+        <v>9926</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="92">
+        <v>1</v>
+      </c>
+      <c r="K24" s="92">
+        <v>2</v>
+      </c>
+      <c r="L24" s="81">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M24" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="91"/>
+      <c r="O24" s="83"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:15">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29">
+        <v>21</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="47">
+        <v>2227</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="81">
+        <v>4</v>
+      </c>
+      <c r="K25" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="81">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="82">
-        <v>1</v>
-      </c>
-      <c r="K24" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="82">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="M24" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" s="92">
-        <v>0.038</v>
-      </c>
-      <c r="O24" s="84">
-        <f t="shared" si="2"/>
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:15">
-      <c r="A25" s="29">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29">
-        <v>22</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="51">
-        <v>9926</v>
-      </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="93">
-        <v>1</v>
-      </c>
-      <c r="K25" s="93">
-        <v>2</v>
-      </c>
-      <c r="L25" s="82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M25" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="92">
-        <v>0.3</v>
-      </c>
-      <c r="O25" s="84">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
+      <c r="N25" s="91"/>
+      <c r="O25" s="83"/>
     </row>
     <row r="26" s="10" customFormat="1" spans="1:15">
-      <c r="A26" s="34">
-        <v>23</v>
+      <c r="A26" s="29">
+        <v>16</v>
       </c>
       <c r="B26" s="29">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="81">
+        <v>2</v>
+      </c>
+      <c r="K26" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="L26" s="81">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="47">
-        <v>2227</v>
-      </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="82">
-        <v>4</v>
-      </c>
-      <c r="K26" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="L26" s="82">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M26" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="92">
-        <v>0.11</v>
-      </c>
-      <c r="O26" s="84">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
-      </c>
+      <c r="N26" s="91"/>
+      <c r="O26" s="83"/>
     </row>
     <row r="27" s="10" customFormat="1" spans="1:15">
-      <c r="A27" s="29">
-        <v>16</v>
+      <c r="A27" s="34">
+        <v>25</v>
       </c>
       <c r="B27" s="29">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>96</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E27" s="31"/>
       <c r="F27" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="G27" s="47">
+        <v>8550</v>
+      </c>
+      <c r="H27" s="46"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="82">
-        <v>2</v>
-      </c>
-      <c r="K27" s="82">
+      <c r="J27" s="81">
+        <v>3</v>
+      </c>
+      <c r="K27" s="81">
         <v>1.5</v>
       </c>
-      <c r="L27" s="82">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M27" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="N27" s="92">
-        <v>0.02</v>
-      </c>
-      <c r="O27" s="84">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
+      <c r="L27" s="81">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="M27" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="91"/>
+      <c r="O27" s="83"/>
     </row>
     <row r="28" s="10" customFormat="1" spans="1:15">
-      <c r="A28" s="34">
-        <v>25</v>
+      <c r="A28" s="29">
+        <v>26</v>
       </c>
       <c r="B28" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="47">
-        <v>8550</v>
+        <v>96</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="H28" s="46"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="82">
-        <v>3</v>
-      </c>
-      <c r="K28" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="L28" s="82">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="M28" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="92">
-        <v>0.026</v>
-      </c>
-      <c r="O28" s="84">
-        <f t="shared" si="2"/>
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="29" s="10" customFormat="1" spans="1:15">
-      <c r="A29" s="29">
-        <v>26</v>
+      <c r="J28" s="81">
+        <v>1</v>
+      </c>
+      <c r="K28" s="81">
+        <v>1</v>
+      </c>
+      <c r="L28" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="94"/>
+      <c r="O28" s="83"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="27" spans="1:15">
+      <c r="A29" s="34">
+        <v>27</v>
       </c>
       <c r="B29" s="29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="82">
+      <c r="J29" s="81">
+        <v>14</v>
+      </c>
+      <c r="K29" s="81">
         <v>1</v>
       </c>
-      <c r="K29" s="82">
+      <c r="L29" s="81">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="94"/>
+      <c r="O29" s="83"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:15">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29">
+        <v>26</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="81">
+        <v>3</v>
+      </c>
+      <c r="K30" s="81">
         <v>1</v>
       </c>
-      <c r="L29" s="82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="85" t="s">
+      <c r="L30" s="81">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="94"/>
+      <c r="O30" s="83"/>
+    </row>
+    <row r="31" s="10" customFormat="1" spans="1:15">
+      <c r="A31" s="34">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29">
+        <v>27</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="N29" s="95">
-        <v>0.5</v>
-      </c>
-      <c r="O29" s="84">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" s="10" customFormat="1" ht="27" spans="1:15">
-      <c r="A30" s="34">
-        <v>27</v>
-      </c>
-      <c r="B30" s="29">
-        <v>25</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="82">
-        <v>14</v>
-      </c>
-      <c r="K30" s="82">
-        <v>1</v>
-      </c>
-      <c r="L30" s="82">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M30" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O30" s="84">
-        <f t="shared" si="2"/>
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="1" spans="1:15">
-      <c r="A31" s="29">
-        <v>28</v>
-      </c>
-      <c r="B31" s="29">
-        <v>26</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>110</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="82">
-        <v>3</v>
-      </c>
-      <c r="K31" s="82">
+      <c r="J31" s="81">
+        <v>2</v>
+      </c>
+      <c r="K31" s="81">
         <v>1</v>
       </c>
-      <c r="L31" s="82">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M31" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="N31" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O31" s="84">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
+      <c r="L31" s="81">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="94"/>
+      <c r="O31" s="83"/>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:15">
-      <c r="A32" s="34">
-        <v>29</v>
+      <c r="A32" s="29">
+        <v>30</v>
       </c>
       <c r="B32" s="29">
-        <v>27</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="31"/>
       <c r="F32" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="82">
-        <v>2</v>
-      </c>
-      <c r="K32" s="82">
+      <c r="J32" s="81">
+        <v>7</v>
+      </c>
+      <c r="K32" s="81">
         <v>1</v>
       </c>
-      <c r="L32" s="82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M32" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="N32" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O32" s="84">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
+      <c r="L32" s="81">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="94"/>
+      <c r="O32" s="83"/>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:15">
-      <c r="A33" s="29">
-        <v>30</v>
+      <c r="A33" s="34">
+        <v>31</v>
       </c>
       <c r="B33" s="29">
-        <v>28</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="35" t="s">
-        <v>116</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="31"/>
       <c r="F33" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="31"/>
-      <c r="J33" s="82">
-        <v>7</v>
-      </c>
-      <c r="K33" s="82">
+      <c r="J33" s="81">
+        <v>2</v>
+      </c>
+      <c r="K33" s="81">
         <v>1</v>
       </c>
-      <c r="L33" s="82">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M33" s="85" t="s">
+      <c r="L33" s="81">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="N33" s="94"/>
+      <c r="O33" s="83"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:15">
+      <c r="A34" s="29">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29">
+        <v>30</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="N33" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O33" s="84">
-        <f t="shared" si="2"/>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:15">
-      <c r="A34" s="34">
-        <v>31</v>
-      </c>
-      <c r="B34" s="29">
-        <v>29</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>120</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="82">
-        <v>2</v>
-      </c>
-      <c r="K34" s="82">
+      <c r="J34" s="81">
         <v>1</v>
       </c>
-      <c r="L34" s="82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M34" s="85" t="s">
+      <c r="K34" s="81">
+        <v>1</v>
+      </c>
+      <c r="L34" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="94"/>
+      <c r="O34" s="83"/>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:15">
+      <c r="A35" s="34">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29">
+        <v>31</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="N34" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O34" s="84">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:15">
-      <c r="A35" s="29">
-        <v>32</v>
-      </c>
-      <c r="B35" s="29">
-        <v>30</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="30" t="s">
+      <c r="E35" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="54" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>124</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="82">
+      <c r="J35" s="81">
+        <v>5</v>
+      </c>
+      <c r="K35" s="81">
         <v>1</v>
       </c>
-      <c r="K35" s="82">
-        <v>1</v>
-      </c>
-      <c r="L35" s="82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="85" t="s">
+      <c r="L35" s="81">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M35" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="94"/>
+      <c r="O35" s="83"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:15">
+      <c r="A36" s="29">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29">
+        <v>32</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O35" s="84">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:15">
-      <c r="A36" s="34">
-        <v>33</v>
-      </c>
-      <c r="B36" s="29">
-        <v>31</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="E36" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="F36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="82">
-        <v>5</v>
-      </c>
-      <c r="K36" s="82">
+      <c r="J36" s="81">
+        <v>2</v>
+      </c>
+      <c r="K36" s="81">
         <v>1</v>
       </c>
-      <c r="L36" s="82">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M36" s="85" t="s">
+      <c r="L36" s="81">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M36" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="94"/>
+      <c r="O36" s="83"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:15">
+      <c r="A37" s="34">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29">
+        <v>33</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="N36" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O36" s="84">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:15">
-      <c r="A37" s="29">
-        <v>34</v>
-      </c>
-      <c r="B37" s="29">
-        <v>32</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="82">
-        <v>2</v>
-      </c>
-      <c r="K37" s="82">
+      <c r="J37" s="81">
+        <v>6</v>
+      </c>
+      <c r="K37" s="81">
         <v>1</v>
       </c>
-      <c r="L37" s="82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M37" s="85" t="s">
+      <c r="L37" s="81">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M37" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="94"/>
+      <c r="O37" s="83"/>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:15">
+      <c r="A38" s="29">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29">
+        <v>34</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="N37" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O37" s="84">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:15">
-      <c r="A38" s="34">
-        <v>35</v>
-      </c>
-      <c r="B38" s="29">
-        <v>33</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="E38" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="F38" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="82">
-        <v>6</v>
-      </c>
-      <c r="K38" s="82">
+      <c r="J38" s="81">
         <v>1</v>
       </c>
-      <c r="L38" s="82">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M38" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="N38" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O38" s="84">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
+      <c r="K38" s="81">
+        <v>1</v>
+      </c>
+      <c r="L38" s="81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="N38" s="94"/>
+      <c r="O38" s="83"/>
     </row>
     <row r="39" s="10" customFormat="1" spans="1:15">
       <c r="A39" s="29">
+        <v>40</v>
+      </c>
+      <c r="B39" s="29">
+        <v>38</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="81">
+        <v>1</v>
+      </c>
+      <c r="K39" s="81">
+        <v>5</v>
+      </c>
+      <c r="L39" s="81">
+        <f>K39*J39</f>
+        <v>5</v>
+      </c>
+      <c r="M39" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="N39" s="95"/>
+      <c r="O39" s="83"/>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:15">
+      <c r="A40" s="29">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29">
         <v>36</v>
       </c>
-      <c r="B39" s="29">
-        <v>34</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="82">
+      <c r="C40" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="33"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="81">
         <v>1</v>
       </c>
-      <c r="K39" s="82">
+      <c r="K40" s="81">
+        <v>2</v>
+      </c>
+      <c r="L40" s="81">
+        <f>K40*J40</f>
+        <v>2</v>
+      </c>
+      <c r="M40" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="N40" s="96"/>
+      <c r="O40" s="83"/>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:15">
+      <c r="A41" s="34">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29">
+        <v>37</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="81">
         <v>1</v>
       </c>
-      <c r="L39" s="82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M39" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="N39" s="95">
-        <v>0.02</v>
-      </c>
-      <c r="O39" s="84">
-        <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:15">
-      <c r="A40" s="34">
-        <v>37</v>
-      </c>
-      <c r="B40" s="29">
-        <v>35</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="82">
-        <v>1</v>
-      </c>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="N40" s="96">
-        <v>0.5</v>
-      </c>
-      <c r="O40" s="84">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:15">
-      <c r="A41" s="34"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="82">
-        <v>1</v>
-      </c>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="85" t="s">
+      <c r="K41" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="L41" s="81">
+        <f>K41*J41</f>
+        <v>1.5</v>
+      </c>
+      <c r="M41" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="N41" s="97">
-        <v>1.5</v>
-      </c>
-      <c r="O41" s="84">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
+      <c r="N41" s="97"/>
+      <c r="O41" s="83"/>
     </row>
     <row r="42" s="10" customFormat="1" spans="1:15">
-      <c r="A42" s="29">
-        <v>40</v>
+      <c r="A42" s="34">
+        <v>41</v>
       </c>
       <c r="B42" s="29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>151</v>
       </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="56">
+        <v>7150</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="81">
+        <v>1</v>
+      </c>
+      <c r="K42" s="81">
+        <v>1</v>
+      </c>
+      <c r="L42" s="81">
+        <f>K42*J42</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="N42" s="97"/>
+      <c r="O42" s="83"/>
+    </row>
+    <row r="43" s="10" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="29">
+        <v>40</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="82">
-        <v>1</v>
-      </c>
-      <c r="K42" s="82">
-        <v>5</v>
-      </c>
-      <c r="L42" s="82">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M42" s="85" t="s">
+      <c r="D43" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="N42" s="98">
-        <v>3.5</v>
-      </c>
-      <c r="O42" s="84">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="43" s="10" customFormat="1" spans="1:15">
-      <c r="A43" s="29">
-        <v>38</v>
-      </c>
-      <c r="B43" s="29">
-        <v>36</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="82">
+      <c r="J43" s="81">
         <v>1</v>
       </c>
-      <c r="K43" s="82">
+      <c r="K43" s="81">
+        <v>3.5</v>
+      </c>
+      <c r="L43" s="81">
+        <f>K43*J43</f>
+        <v>3.5</v>
+      </c>
+      <c r="M43" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="N43" s="95"/>
+      <c r="O43" s="83"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O44" s="18">
+        <f>SUM(O5:O43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="100"/>
+      <c r="J46" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="64">
+        <v>1</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="103"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
+      <c r="A48" s="64">
         <v>2</v>
       </c>
-      <c r="L43" s="82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M43" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="N43" s="99">
-        <v>0.063</v>
-      </c>
-      <c r="O43" s="84">
-        <f t="shared" si="2"/>
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="44" s="10" customFormat="1" spans="1:15">
-      <c r="A44" s="34">
-        <v>39</v>
-      </c>
-      <c r="B44" s="29">
-        <v>37</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="82">
-        <v>1</v>
-      </c>
-      <c r="K44" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="L44" s="82">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="M44" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="N44" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="O44" s="84">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" s="10" customFormat="1" spans="1:15">
-      <c r="A45" s="34">
-        <v>41</v>
-      </c>
-      <c r="B45" s="29">
-        <v>39</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31" t="s">
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="103"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="64">
+        <v>3</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="103"/>
+    </row>
+    <row r="51" spans="5:13">
+      <c r="E51" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="57">
-        <v>7150</v>
-      </c>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="82">
-        <v>1</v>
-      </c>
-      <c r="K45" s="82">
-        <v>1</v>
-      </c>
-      <c r="L45" s="82">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M45" s="85" t="s">
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="N45" s="100">
-        <v>0.17</v>
-      </c>
-      <c r="O45" s="84">
-        <f t="shared" si="2"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="46" s="10" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A46" s="29">
-        <v>42</v>
-      </c>
-      <c r="B46" s="29">
-        <v>40</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="105"/>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="F52" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31" t="s">
+      <c r="G52" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="H52" s="69"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="82">
-        <v>1</v>
-      </c>
-      <c r="K46" s="82">
-        <v>3.5</v>
-      </c>
-      <c r="L46" s="82">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="M46" s="85" t="s">
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="73"/>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="N46" s="98">
-        <v>0.18</v>
-      </c>
-      <c r="O46" s="84">
-        <f t="shared" si="2"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="O47" s="18">
-        <f>SUM(O5:O46)</f>
-        <v>14.13025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="H49" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="103"/>
-      <c r="J49" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="104" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="65">
-        <v>1</v>
-      </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="106"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:13">
-      <c r="A51" s="65">
-        <v>2</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
-      <c r="M51" s="106"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="65">
-        <v>3</v>
-      </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="106"/>
-    </row>
-    <row r="54" spans="5:13">
-      <c r="E54" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="107" t="s">
-        <v>179</v>
-      </c>
+      <c r="F53" s="72">
+        <v>43163</v>
+      </c>
+      <c r="G53" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="69"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="73"/>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="107"/>
       <c r="K54" s="107"/>
       <c r="L54" s="107"/>
-      <c r="M54" s="108"/>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="70"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="109" t="s">
-        <v>183</v>
-      </c>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="74"/>
-    </row>
-    <row r="56" spans="3:13">
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="73">
-        <v>43163</v>
-      </c>
-      <c r="G56" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="70"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="74"/>
-    </row>
-    <row r="57" spans="3:13">
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-      <c r="L57" s="110"/>
-      <c r="M57" s="74"/>
+      <c r="M54" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M46"/>
+  <autoFilter ref="A4:M43"/>
   <mergeCells count="10">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:I48"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J51:M51"/>
   </mergeCells>
   <conditionalFormatting sqref="E6">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
@@ -5491,35 +5112,14 @@
   <conditionalFormatting sqref="G21">
     <cfRule type="duplicateValues" dxfId="0" priority="328"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="0" priority="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="duplicateValues" dxfId="0" priority="303"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="304" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="307"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="309"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="310"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="311"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="312"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="313"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="314" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="315"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="316"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="317" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="E26">
     <cfRule type="duplicateValues" dxfId="0" priority="339"/>
     <cfRule type="duplicateValues" dxfId="0" priority="340"/>
     <cfRule type="duplicateValues" dxfId="0" priority="341"/>
     <cfRule type="duplicateValues" dxfId="0" priority="342"/>
     <cfRule type="duplicateValues" dxfId="0" priority="343" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G26">
     <cfRule type="duplicateValues" dxfId="0" priority="329"/>
     <cfRule type="duplicateValues" dxfId="0" priority="330"/>
     <cfRule type="duplicateValues" dxfId="0" priority="331"/>
@@ -5531,7 +5131,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="337" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="338"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G28">
     <cfRule type="duplicateValues" dxfId="0" priority="262"/>
     <cfRule type="duplicateValues" dxfId="0" priority="263"/>
     <cfRule type="duplicateValues" dxfId="0" priority="264" stopIfTrue="1"/>
@@ -5563,7 +5163,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="290"/>
     <cfRule type="duplicateValues" dxfId="0" priority="291"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E29">
     <cfRule type="duplicateValues" dxfId="0" priority="222" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="223"/>
     <cfRule type="duplicateValues" dxfId="0" priority="224"/>
@@ -5575,7 +5175,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="230"/>
     <cfRule type="duplicateValues" dxfId="0" priority="231"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G29">
     <cfRule type="duplicateValues" dxfId="0" priority="232"/>
     <cfRule type="duplicateValues" dxfId="0" priority="233"/>
     <cfRule type="duplicateValues" dxfId="0" priority="234" stopIfTrue="1"/>
@@ -5607,7 +5207,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="260"/>
     <cfRule type="duplicateValues" dxfId="0" priority="261"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G30">
     <cfRule type="duplicateValues" dxfId="0" priority="192"/>
     <cfRule type="duplicateValues" dxfId="0" priority="193"/>
     <cfRule type="duplicateValues" dxfId="0" priority="194" stopIfTrue="1"/>
@@ -5639,7 +5239,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="220"/>
     <cfRule type="duplicateValues" dxfId="0" priority="221"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G31">
     <cfRule type="duplicateValues" dxfId="0" priority="162"/>
     <cfRule type="duplicateValues" dxfId="0" priority="163"/>
     <cfRule type="duplicateValues" dxfId="0" priority="164" stopIfTrue="1"/>
@@ -5671,7 +5271,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="190"/>
     <cfRule type="duplicateValues" dxfId="0" priority="191"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E32">
     <cfRule type="duplicateValues" dxfId="0" priority="52" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="0" priority="54"/>
@@ -5683,7 +5283,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G32">
     <cfRule type="duplicateValues" dxfId="0" priority="132"/>
     <cfRule type="duplicateValues" dxfId="0" priority="133"/>
     <cfRule type="duplicateValues" dxfId="0" priority="134" stopIfTrue="1"/>
@@ -5715,7 +5315,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="160"/>
     <cfRule type="duplicateValues" dxfId="0" priority="161"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G33">
     <cfRule type="duplicateValues" dxfId="0" priority="102"/>
     <cfRule type="duplicateValues" dxfId="0" priority="103"/>
     <cfRule type="duplicateValues" dxfId="0" priority="104" stopIfTrue="1"/>
@@ -5747,7 +5347,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="130"/>
     <cfRule type="duplicateValues" dxfId="0" priority="131"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E34">
     <cfRule type="duplicateValues" dxfId="0" priority="62" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="0" priority="64"/>
@@ -5759,7 +5359,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="70"/>
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G34">
     <cfRule type="duplicateValues" dxfId="0" priority="72"/>
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="0" priority="74" stopIfTrue="1"/>
@@ -5791,66 +5391,12 @@
     <cfRule type="duplicateValues" dxfId="0" priority="100"/>
     <cfRule type="duplicateValues" dxfId="0" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E35">
     <cfRule type="duplicateValues" dxfId="0" priority="532"/>
     <cfRule type="duplicateValues" dxfId="0" priority="533"/>
     <cfRule type="duplicateValues" dxfId="0" priority="534"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="24" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="33" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="44" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G39">
     <cfRule type="duplicateValues" dxfId="0" priority="292"/>
     <cfRule type="duplicateValues" dxfId="0" priority="293"/>
     <cfRule type="duplicateValues" dxfId="0" priority="294" stopIfTrue="1"/>
@@ -5862,7 +5408,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="300"/>
     <cfRule type="duplicateValues" dxfId="0" priority="301"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E9 E23:E26 E28:E29 E34 E31:E32 E21 E36:E1048576 E14:E15 E18:E19">
+  <conditionalFormatting sqref="E1:E5 E9 E18:E19 E14:E15 E21:E25 E27:E28 E33 E35:E1048576 E30:E31">
     <cfRule type="duplicateValues" dxfId="0" priority="531"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6098,7 +5644,7 @@
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6111,14 +5657,14 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -6126,14 +5672,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -6141,10 +5687,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6194,7 +5740,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6215,32 +5761,32 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B38" s="9">
         <v>42247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H38" s="9">
         <v>42247</v>
@@ -6283,7 +5829,7 @@
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -6296,14 +5842,14 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -6311,14 +5857,14 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -6326,10 +5872,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6379,7 +5925,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6400,32 +5946,32 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B38" s="9">
         <v>42247</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H38" s="9">
         <v>42247</v>
@@ -6460,25 +6006,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
